--- a/sesumpp16.xlsx
+++ b/sesumpp16.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TRANSITUS25\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C93AE88-41A4-44A4-94E5-F110B3A1F462}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3883A4E9-72AE-4A81-B7CB-F92DF40319DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="20490" windowHeight="11070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="390" windowWidth="20490" windowHeight="11070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test-Cases" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="32">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -55,9 +55,6 @@
     <t>IsModified/Added</t>
   </si>
   <si>
-    <t>SESW_6_UMPP_009</t>
-  </si>
-  <si>
     <t>TC009</t>
   </si>
   <si>
@@ -104,6 +101,21 @@
   </si>
   <si>
     <t>Approved</t>
+  </si>
+  <si>
+    <t>SESW_6_UMPP_016</t>
+  </si>
+  <si>
+    <t>SESW_6_UMPP_026</t>
+  </si>
+  <si>
+    <t>SESW_6_UMPP_036</t>
+  </si>
+  <si>
+    <t>SESW_6_UMPP_046</t>
+  </si>
+  <si>
+    <t>TC016</t>
   </si>
 </sst>
 </file>
@@ -477,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,61 +545,61 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
       <c r="I2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
         <v>21</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>22</v>
-      </c>
-      <c r="H4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
         <v>24</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>25</v>
-      </c>
-      <c r="H5" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
